--- a/inst/extdata/decklist.xlsx
+++ b/inst/extdata/decklist.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$O$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$X$100</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>PRODUCE UB T2</t>
   </si>
@@ -330,18 +330,9 @@
     <t>enabler_3</t>
   </si>
   <si>
-    <t>carta</t>
-  </si>
-  <si>
     <t>is_land</t>
   </si>
   <si>
-    <t>produce_u</t>
-  </si>
-  <si>
-    <t>produce_b</t>
-  </si>
-  <si>
     <t>color_b</t>
   </si>
   <si>
@@ -357,9 +348,6 @@
     <t>Island5</t>
   </si>
   <si>
-    <t>Island6</t>
-  </si>
-  <si>
     <t>Island4</t>
   </si>
   <si>
@@ -384,13 +372,52 @@
     <t>color_c</t>
   </si>
   <si>
-    <t>is_land_back_u</t>
-  </si>
-  <si>
-    <t>is_land_back_b</t>
-  </si>
-  <si>
-    <t>produce_color</t>
+    <t>enabler</t>
+  </si>
+  <si>
+    <t>enabler_u</t>
+  </si>
+  <si>
+    <t>enabler_c</t>
+  </si>
+  <si>
+    <t>enabler_b</t>
+  </si>
+  <si>
+    <t>enabler_1u</t>
+  </si>
+  <si>
+    <t>enabler_1b</t>
+  </si>
+  <si>
+    <t>enabler_2u</t>
+  </si>
+  <si>
+    <t>enabler_2b</t>
+  </si>
+  <si>
+    <t>Mutavault</t>
+  </si>
+  <si>
+    <t>is_mdfc_land</t>
+  </si>
+  <si>
+    <t>is_mdfc_land_u</t>
+  </si>
+  <si>
+    <t>is_mdfc_land_b</t>
+  </si>
+  <si>
+    <t>is_color_land</t>
+  </si>
+  <si>
+    <t>is_land_u</t>
+  </si>
+  <si>
+    <t>is_land_b</t>
+  </si>
+  <si>
+    <t>card_name</t>
   </si>
 </sst>
 </file>
@@ -730,69 +757,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O100"/>
+  <dimension ref="A1:X100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.140625" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" t="s">
         <v>99</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>100</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" t="s">
         <v>101</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" t="s">
         <v>102</v>
-      </c>
-      <c r="G1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K1" t="s">
-        <v>121</v>
-      </c>
-      <c r="L1" t="s">
-        <v>122</v>
       </c>
       <c r="M1" t="s">
         <v>123</v>
       </c>
       <c r="N1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O1" t="s">
         <v>105</v>
       </c>
-      <c r="O1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="R1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S1" t="s">
+        <v>126</v>
+      </c>
+      <c r="T1" t="s">
+        <v>127</v>
+      </c>
+      <c r="U1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V1" t="s">
+        <v>129</v>
+      </c>
+      <c r="W1" t="s">
+        <v>130</v>
+      </c>
+      <c r="X1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -815,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -827,19 +882,46 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -859,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -883,10 +965,37 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -915,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -924,17 +1033,44 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5">
@@ -953,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -977,10 +1113,37 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -988,13 +1151,13 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1026,8 +1189,35 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1073,8 +1263,35 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1103,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1112,16 +1329,43 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1141,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1165,10 +1409,37 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1197,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1206,16 +1477,43 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1235,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1259,10 +1557,37 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1282,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1306,10 +1631,37 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1332,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1355,8 +1707,35 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1379,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1402,8 +1781,35 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1426,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1449,8 +1855,35 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1473,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1496,8 +1929,35 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1520,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1543,8 +2003,35 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1573,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1582,16 +2069,43 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1614,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1637,8 +2151,35 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1658,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1682,10 +2223,37 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1708,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1731,8 +2299,35 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1755,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1778,8 +2373,35 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1787,13 +2409,13 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1823,10 +2445,37 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1846,10 +2495,10 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1870,10 +2519,37 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -1893,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1917,10 +2593,37 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1940,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1964,10 +2667,37 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1996,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2005,16 +2735,43 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -2037,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2060,8 +2817,35 @@
       <c r="O28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -2081,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -2105,10 +2889,37 @@
         <v>0</v>
       </c>
       <c r="O29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -2116,13 +2927,13 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2154,8 +2965,35 @@
       <c r="O30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -2184,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2201,8 +3039,35 @@
       <c r="O31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -2210,16 +3075,16 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2248,8 +3113,35 @@
       <c r="O32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -2272,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2295,8 +3187,35 @@
       <c r="O33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -2316,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2340,10 +3259,37 @@
         <v>0</v>
       </c>
       <c r="O34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -2351,13 +3297,13 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2366,13 +3312,13 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -2389,58 +3335,112 @@
       <c r="O35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>110</v>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>114</v>
-      </c>
       <c r="B37">
         <v>1</v>
       </c>
@@ -2466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -2475,18 +3475,45 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -2513,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2522,18 +3549,45 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38">
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -2560,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -2569,18 +3623,45 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>1</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -2607,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2616,18 +3697,45 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>1</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -2654,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -2663,16 +3771,43 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2695,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -2718,8 +3853,35 @@
       <c r="O42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -2765,8 +3927,35 @@
       <c r="O43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -2795,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -2804,16 +3993,43 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>1</v>
+      </c>
+      <c r="W44">
+        <v>1</v>
+      </c>
+      <c r="X44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -2859,8 +4075,35 @@
       <c r="O45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -2880,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -2904,10 +4147,37 @@
         <v>0</v>
       </c>
       <c r="O46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -2936,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -2945,16 +4215,43 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>1</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>1</v>
+      </c>
+      <c r="W47">
+        <v>1</v>
+      </c>
+      <c r="X47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -2965,7 +4262,7 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3000,8 +4297,35 @@
       <c r="O48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -3021,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -3045,10 +4369,37 @@
         <v>0</v>
       </c>
       <c r="O49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -3068,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -3092,10 +4443,37 @@
         <v>0</v>
       </c>
       <c r="O50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -3103,7 +4481,7 @@
         <v>1</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -3112,10 +4490,10 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -3130,19 +4508,46 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51">
         <v>0</v>
       </c>
       <c r="O51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -3150,7 +4555,7 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -3159,10 +4564,10 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -3177,19 +4582,46 @@
         <v>0</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52">
         <v>0</v>
       </c>
       <c r="O52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -3218,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -3227,16 +4659,43 @@
         <v>0</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>1</v>
+      </c>
+      <c r="W53">
+        <v>1</v>
+      </c>
+      <c r="X53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -3244,28 +4703,28 @@
         <v>1</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -3280,10 +4739,37 @@
         <v>0</v>
       </c>
       <c r="O54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -3312,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -3321,16 +4807,43 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>1</v>
+      </c>
+      <c r="W55">
+        <v>1</v>
+      </c>
+      <c r="X55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -3338,13 +4851,13 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -3374,10 +4887,37 @@
         <v>0</v>
       </c>
       <c r="O56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -3423,8 +4963,35 @@
       <c r="O57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -3470,8 +5037,35 @@
       <c r="O58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -3491,7 +5085,7 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -3515,10 +5109,37 @@
         <v>0</v>
       </c>
       <c r="O59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -3541,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -3564,8 +5185,35 @@
       <c r="O60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P60">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -3573,13 +5221,13 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -3588,16 +5236,16 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -3611,8 +5259,35 @@
       <c r="O61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P61">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -3632,7 +5307,7 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -3656,10 +5331,37 @@
         <v>0</v>
       </c>
       <c r="O62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -3670,7 +5372,7 @@
         <v>1</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3705,8 +5407,35 @@
       <c r="O63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -3735,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -3744,16 +5473,43 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>1</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>1</v>
+      </c>
+      <c r="W64">
+        <v>1</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -3764,7 +5520,7 @@
         <v>1</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3799,8 +5555,35 @@
       <c r="O65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -3829,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -3838,16 +5621,43 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>1</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>1</v>
+      </c>
+      <c r="W66">
+        <v>1</v>
+      </c>
+      <c r="X66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -3876,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -3885,16 +5695,43 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>1</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>1</v>
+      </c>
+      <c r="W67">
+        <v>1</v>
+      </c>
+      <c r="X67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -3902,7 +5739,7 @@
         <v>1</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -3911,10 +5748,10 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -3929,19 +5766,46 @@
         <v>0</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N68">
         <v>0</v>
       </c>
       <c r="O68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -3949,13 +5813,13 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -3985,10 +5849,37 @@
         <v>0</v>
       </c>
       <c r="O69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -4008,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -4032,10 +5923,37 @@
         <v>0</v>
       </c>
       <c r="O70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -4064,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -4073,16 +5991,43 @@
         <v>0</v>
       </c>
       <c r="M71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>1</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>1</v>
+      </c>
+      <c r="W71">
+        <v>1</v>
+      </c>
+      <c r="X71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -4114,22 +6059,49 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72">
         <v>0</v>
       </c>
       <c r="M72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>1</v>
+      </c>
+      <c r="T72">
+        <v>1</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -4158,25 +6130,52 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>1</v>
-      </c>
-      <c r="K73" s="1">
+        <v>0</v>
+      </c>
+      <c r="K73">
         <v>0</v>
       </c>
       <c r="L73">
         <v>0</v>
       </c>
       <c r="M73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N73">
         <v>0</v>
       </c>
       <c r="O73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>1</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73" s="1">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>1</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -4184,13 +6183,13 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -4220,10 +6219,37 @@
         <v>0</v>
       </c>
       <c r="O74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -4243,10 +6269,10 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -4267,10 +6293,37 @@
         <v>0</v>
       </c>
       <c r="O75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P75">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -4278,13 +6331,13 @@
         <v>1</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -4293,16 +6346,16 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -4316,8 +6369,35 @@
       <c r="O76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P76">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -4337,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -4361,10 +6441,37 @@
         <v>0</v>
       </c>
       <c r="O77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -4387,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -4410,8 +6517,35 @@
       <c r="O78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P78">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -4419,13 +6553,13 @@
         <v>1</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -4455,10 +6589,37 @@
         <v>0</v>
       </c>
       <c r="O79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -4466,16 +6627,16 @@
         <v>1</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -4484,7 +6645,7 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -4504,8 +6665,35 @@
       <c r="O80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>1</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -4528,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -4551,8 +6739,35 @@
       <c r="O81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P81">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -4572,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -4596,10 +6811,37 @@
         <v>0</v>
       </c>
       <c r="O82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -4619,7 +6861,7 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -4643,10 +6885,37 @@
         <v>0</v>
       </c>
       <c r="O83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -4675,7 +6944,7 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -4684,18 +6953,45 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>1</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>1</v>
+      </c>
+      <c r="W84">
+        <v>1</v>
+      </c>
+      <c r="X84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -4722,7 +7018,7 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -4731,18 +7027,45 @@
         <v>0</v>
       </c>
       <c r="M85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N85">
         <v>0</v>
       </c>
       <c r="O85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>1</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>1</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -4769,7 +7092,7 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -4778,18 +7101,45 @@
         <v>0</v>
       </c>
       <c r="M86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N86">
         <v>0</v>
       </c>
       <c r="O86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>1</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>1</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -4816,7 +7166,7 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -4825,18 +7175,45 @@
         <v>0</v>
       </c>
       <c r="M87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N87">
         <v>0</v>
       </c>
       <c r="O87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>1</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <v>1</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -4863,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -4872,16 +7249,43 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N88">
         <v>0</v>
       </c>
       <c r="O88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>1</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <v>1</v>
+      </c>
+      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="X88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
@@ -4901,7 +7305,7 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -4925,10 +7329,37 @@
         <v>0</v>
       </c>
       <c r="O89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="X89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -4936,28 +7367,28 @@
         <v>1</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -4972,10 +7403,37 @@
         <v>0</v>
       </c>
       <c r="O90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>0</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <v>0</v>
+      </c>
+      <c r="X90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -4983,13 +7441,13 @@
         <v>1</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -5021,8 +7479,35 @@
       <c r="O91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P91">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <v>0</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="X91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -5030,13 +7515,13 @@
         <v>1</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -5066,10 +7551,37 @@
         <v>0</v>
       </c>
       <c r="O92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>0</v>
+      </c>
+      <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>0</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>0</v>
+      </c>
+      <c r="X92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
@@ -5098,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -5107,16 +7619,43 @@
         <v>0</v>
       </c>
       <c r="M93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>1</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <v>0</v>
+      </c>
+      <c r="V93">
+        <v>1</v>
+      </c>
+      <c r="W93">
+        <v>1</v>
+      </c>
+      <c r="X93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -5145,7 +7684,7 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -5154,16 +7693,43 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>1</v>
+      </c>
+      <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <v>0</v>
+      </c>
+      <c r="V94">
+        <v>1</v>
+      </c>
+      <c r="W94">
+        <v>1</v>
+      </c>
+      <c r="X94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -5171,16 +7737,16 @@
         <v>1</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -5189,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -5209,8 +7775,35 @@
       <c r="O95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>1</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <v>0</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <v>0</v>
+      </c>
+      <c r="X95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -5233,7 +7826,7 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -5256,8 +7849,35 @@
       <c r="O96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P96">
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <v>0</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+      <c r="W96">
+        <v>0</v>
+      </c>
+      <c r="X96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -5286,7 +7906,7 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -5295,16 +7915,43 @@
         <v>0</v>
       </c>
       <c r="M97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>1</v>
+      </c>
+      <c r="S97">
+        <v>0</v>
+      </c>
+      <c r="T97">
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <v>0</v>
+      </c>
+      <c r="V97">
+        <v>1</v>
+      </c>
+      <c r="W97">
+        <v>1</v>
+      </c>
+      <c r="X97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -5333,7 +7980,7 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -5342,16 +7989,43 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>1</v>
+      </c>
+      <c r="S98">
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <v>0</v>
+      </c>
+      <c r="U98">
+        <v>0</v>
+      </c>
+      <c r="V98">
+        <v>1</v>
+      </c>
+      <c r="W98">
+        <v>1</v>
+      </c>
+      <c r="X98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -5359,13 +8033,13 @@
         <v>1</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -5395,10 +8069,37 @@
         <v>0</v>
       </c>
       <c r="O99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <v>0</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>0</v>
+      </c>
+      <c r="X99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -5418,7 +8119,7 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -5442,10 +8143,38 @@
         <v>0</v>
       </c>
       <c r="O100">
+        <v>1</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <v>0</v>
+      </c>
+      <c r="S100">
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <v>0</v>
+      </c>
+      <c r="V100">
+        <v>0</v>
+      </c>
+      <c r="W100">
+        <v>0</v>
+      </c>
+      <c r="X100">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:X100"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5456,7 +8185,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5518,14 +8247,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B28" sqref="A1:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inst/extdata/decklist.xlsx
+++ b/inst/extdata/decklist.xlsx
@@ -81,9 +81,6 @@
     <t>Commandeer</t>
   </si>
   <si>
-    <t>Consign</t>
-  </si>
-  <si>
     <t>Contagion</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>Fallen Shinobi</t>
   </si>
   <si>
-    <t>Far</t>
-  </si>
-  <si>
     <t>Fierce Guardianship</t>
   </si>
   <si>
@@ -418,6 +412,12 @@
   </si>
   <si>
     <t>card_name</t>
+  </si>
+  <si>
+    <t>ConsignOblivion</t>
+  </si>
+  <si>
+    <t>FarAway</t>
   </si>
 </sst>
 </file>
@@ -761,7 +761,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,76 +775,76 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" t="s">
         <v>117</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" t="s">
         <v>99</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" t="s">
         <v>100</v>
       </c>
-      <c r="F1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="R1" t="s">
         <v>101</v>
       </c>
-      <c r="J1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M1" t="s">
-        <v>123</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>124</v>
       </c>
-      <c r="O1" t="s">
-        <v>105</v>
-      </c>
-      <c r="P1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="R1" t="s">
-        <v>103</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
+        <v>125</v>
+      </c>
+      <c r="U1" t="s">
         <v>126</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>127</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>128</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>129</v>
-      </c>
-      <c r="W1" t="s">
-        <v>130</v>
-      </c>
-      <c r="X1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -1589,7 +1589,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2329,7 +2329,7 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2699,7 +2699,7 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2773,7 +2773,7 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2921,7 +2921,7 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2995,7 +2995,7 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -3069,7 +3069,7 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -3217,7 +3217,7 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3291,7 +3291,7 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -3318,10 +3318,10 @@
         <v>1</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -3587,7 +3587,7 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -3661,7 +3661,7 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -3809,7 +3809,7 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -3883,7 +3883,7 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -3957,7 +3957,7 @@
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -4179,7 +4179,7 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -4401,7 +4401,7 @@
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -4475,7 +4475,7 @@
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -4549,7 +4549,7 @@
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -4697,7 +4697,7 @@
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -4771,7 +4771,7 @@
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -4845,7 +4845,7 @@
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -4919,7 +4919,7 @@
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -4993,7 +4993,7 @@
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -5067,7 +5067,7 @@
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -5141,7 +5141,7 @@
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -5215,7 +5215,7 @@
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -5289,7 +5289,7 @@
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -5363,7 +5363,7 @@
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -5437,7 +5437,7 @@
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -5511,7 +5511,7 @@
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -5585,7 +5585,7 @@
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -5659,7 +5659,7 @@
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -5733,7 +5733,7 @@
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -5807,7 +5807,7 @@
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -5881,7 +5881,7 @@
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -5955,7 +5955,7 @@
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -6029,7 +6029,7 @@
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -6103,7 +6103,7 @@
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -6177,7 +6177,7 @@
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -6251,7 +6251,7 @@
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -6325,7 +6325,7 @@
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -6399,7 +6399,7 @@
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -6473,7 +6473,7 @@
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -6547,7 +6547,7 @@
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -6621,7 +6621,7 @@
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -6695,7 +6695,7 @@
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -6769,7 +6769,7 @@
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -6843,7 +6843,7 @@
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -6917,7 +6917,7 @@
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -6991,7 +6991,7 @@
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -7065,7 +7065,7 @@
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -7139,7 +7139,7 @@
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -7213,7 +7213,7 @@
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -7287,7 +7287,7 @@
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -7361,7 +7361,7 @@
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -7435,7 +7435,7 @@
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -7509,7 +7509,7 @@
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -7583,7 +7583,7 @@
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -7657,7 +7657,7 @@
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -7731,7 +7731,7 @@
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -7805,7 +7805,7 @@
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -7879,7 +7879,7 @@
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -7953,7 +7953,7 @@
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -8027,7 +8027,7 @@
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -8101,7 +8101,7 @@
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B100">
         <v>1</v>

--- a/inst/extdata/decklist.xlsx
+++ b/inst/extdata/decklist.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$X$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$Y$100</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>PRODUCE UB T2</t>
   </si>
@@ -418,6 +418,9 @@
   </si>
   <si>
     <t>FarAway</t>
+  </si>
+  <si>
+    <t>enabler_ub</t>
   </si>
 </sst>
 </file>
@@ -757,23 +760,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X100"/>
+  <dimension ref="A1:Y100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A100" sqref="A100"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.140625" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>130</v>
       </c>
@@ -808,46 +811,49 @@
         <v>120</v>
       </c>
       <c r="L1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M1" t="s">
         <v>100</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>121</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>122</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>103</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>102</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>101</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>124</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>125</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>126</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>127</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>128</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -894,25 +900,25 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -920,8 +926,11 @@
       <c r="X2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -965,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -994,8 +1003,11 @@
       <c r="X3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1048,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -1060,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>1</v>
@@ -1068,8 +1080,11 @@
       <c r="X4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1113,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1142,8 +1157,11 @@
       <c r="X5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1190,10 +1208,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1216,8 +1234,11 @@
       <c r="X6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1290,8 +1311,11 @@
       <c r="X7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1344,10 +1368,10 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -1356,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8">
         <v>1</v>
@@ -1364,8 +1388,11 @@
       <c r="X8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1409,10 +1436,10 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1438,8 +1465,11 @@
       <c r="X9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1492,10 +1522,10 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -1504,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10">
         <v>1</v>
@@ -1512,8 +1542,11 @@
       <c r="X10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1557,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1586,8 +1619,11 @@
       <c r="X11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>131</v>
       </c>
@@ -1631,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1660,8 +1696,11 @@
       <c r="X12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1708,10 +1747,10 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -1734,8 +1773,11 @@
       <c r="X13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1782,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -1808,8 +1850,11 @@
       <c r="X14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1856,10 +1901,10 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -1882,8 +1927,11 @@
       <c r="X15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1930,10 +1978,10 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -1956,8 +2004,11 @@
       <c r="X16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -2004,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -2030,8 +2081,11 @@
       <c r="X17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -2084,10 +2138,10 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -2096,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18">
         <v>1</v>
@@ -2104,8 +2158,11 @@
       <c r="X18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -2152,10 +2209,10 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -2178,8 +2235,11 @@
       <c r="X19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -2223,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -2252,8 +2312,11 @@
       <c r="X20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -2300,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2326,8 +2389,11 @@
       <c r="X21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -2374,10 +2440,10 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -2400,8 +2466,11 @@
       <c r="X22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -2445,10 +2514,10 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -2474,8 +2543,11 @@
       <c r="X23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -2519,13 +2591,13 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -2548,8 +2620,11 @@
       <c r="X24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>132</v>
       </c>
@@ -2593,13 +2668,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -2622,8 +2697,11 @@
       <c r="X25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -2667,10 +2745,10 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -2696,8 +2774,11 @@
       <c r="X26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -2750,10 +2831,10 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -2762,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="V27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27">
         <v>1</v>
@@ -2770,8 +2851,11 @@
       <c r="X27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -2818,10 +2902,10 @@
         <v>0</v>
       </c>
       <c r="P28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -2844,8 +2928,11 @@
       <c r="X28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -2889,10 +2976,10 @@
         <v>0</v>
       </c>
       <c r="O29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -2918,8 +3005,11 @@
       <c r="X29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -2966,10 +3056,10 @@
         <v>0</v>
       </c>
       <c r="P30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30">
         <v>0</v>
@@ -2992,8 +3082,11 @@
       <c r="X30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -3046,10 +3139,10 @@
         <v>0</v>
       </c>
       <c r="R31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31">
         <v>0</v>
@@ -3066,8 +3159,11 @@
       <c r="X31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -3140,8 +3236,11 @@
       <c r="X32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -3188,10 +3287,10 @@
         <v>0</v>
       </c>
       <c r="P33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33">
         <v>0</v>
@@ -3214,8 +3313,11 @@
       <c r="X33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -3259,13 +3361,13 @@
         <v>0</v>
       </c>
       <c r="O34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34">
         <v>0</v>
@@ -3288,8 +3390,11 @@
       <c r="X34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -3336,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="P35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35">
         <v>0</v>
@@ -3362,8 +3467,11 @@
       <c r="X35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>105</v>
       </c>
@@ -3416,10 +3524,10 @@
         <v>0</v>
       </c>
       <c r="R36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36">
         <v>0</v>
@@ -3428,16 +3536,19 @@
         <v>0</v>
       </c>
       <c r="V36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36">
         <v>1</v>
       </c>
       <c r="X36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>108</v>
       </c>
@@ -3490,10 +3601,10 @@
         <v>0</v>
       </c>
       <c r="R37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37">
         <v>0</v>
@@ -3502,16 +3613,19 @@
         <v>0</v>
       </c>
       <c r="V37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W37">
         <v>1</v>
       </c>
       <c r="X37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>109</v>
       </c>
@@ -3564,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="R38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38">
         <v>0</v>
@@ -3576,16 +3690,19 @@
         <v>0</v>
       </c>
       <c r="V38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W38">
         <v>1</v>
       </c>
       <c r="X38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>107</v>
       </c>
@@ -3638,10 +3755,10 @@
         <v>0</v>
       </c>
       <c r="R39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39">
         <v>0</v>
@@ -3650,16 +3767,19 @@
         <v>0</v>
       </c>
       <c r="V39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W39">
         <v>1</v>
       </c>
       <c r="X39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>106</v>
       </c>
@@ -3712,10 +3832,10 @@
         <v>0</v>
       </c>
       <c r="R40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40">
         <v>0</v>
@@ -3724,16 +3844,19 @@
         <v>0</v>
       </c>
       <c r="V40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40">
         <v>1</v>
       </c>
       <c r="X40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>123</v>
       </c>
@@ -3786,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="R41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41">
         <v>0</v>
@@ -3806,8 +3929,11 @@
       <c r="X41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -3854,10 +3980,10 @@
         <v>0</v>
       </c>
       <c r="P42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42">
         <v>0</v>
@@ -3880,8 +4006,11 @@
       <c r="X42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -3954,8 +4083,11 @@
       <c r="X43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -4008,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="R44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44">
         <v>0</v>
@@ -4020,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="V44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W44">
         <v>1</v>
@@ -4028,8 +4160,11 @@
       <c r="X44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -4102,8 +4237,11 @@
       <c r="X45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -4147,10 +4285,10 @@
         <v>0</v>
       </c>
       <c r="O46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -4176,8 +4314,11 @@
       <c r="X46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -4230,10 +4371,10 @@
         <v>0</v>
       </c>
       <c r="R47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47">
         <v>0</v>
@@ -4242,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="V47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W47">
         <v>1</v>
@@ -4250,8 +4391,11 @@
       <c r="X47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -4324,8 +4468,11 @@
       <c r="X48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -4369,10 +4516,10 @@
         <v>0</v>
       </c>
       <c r="O49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -4398,8 +4545,11 @@
       <c r="X49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -4443,10 +4593,10 @@
         <v>0</v>
       </c>
       <c r="O50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -4472,8 +4622,11 @@
       <c r="X50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -4508,19 +4661,19 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51">
         <v>1</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -4546,8 +4699,11 @@
       <c r="X51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -4582,19 +4738,19 @@
         <v>0</v>
       </c>
       <c r="L52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52">
         <v>1</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -4620,8 +4776,11 @@
       <c r="X52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -4674,10 +4833,10 @@
         <v>0</v>
       </c>
       <c r="R53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53">
         <v>0</v>
@@ -4686,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="V53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W53">
         <v>1</v>
@@ -4694,8 +4853,11 @@
       <c r="X53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -4739,10 +4901,10 @@
         <v>0</v>
       </c>
       <c r="O54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -4768,8 +4930,11 @@
       <c r="X54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -4822,10 +4987,10 @@
         <v>0</v>
       </c>
       <c r="R55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T55">
         <v>0</v>
@@ -4834,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="V55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W55">
         <v>1</v>
@@ -4842,8 +5007,11 @@
       <c r="X55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -4887,10 +5055,10 @@
         <v>0</v>
       </c>
       <c r="O56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -4916,8 +5084,11 @@
       <c r="X56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -4990,8 +5161,11 @@
       <c r="X57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -5064,8 +5238,11 @@
       <c r="X58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -5109,10 +5286,10 @@
         <v>0</v>
       </c>
       <c r="O59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -5138,8 +5315,11 @@
       <c r="X59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -5186,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="P60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R60">
         <v>0</v>
@@ -5212,8 +5392,11 @@
       <c r="X60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -5260,10 +5443,10 @@
         <v>0</v>
       </c>
       <c r="P61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61">
         <v>0</v>
@@ -5286,8 +5469,11 @@
       <c r="X61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -5331,10 +5517,10 @@
         <v>0</v>
       </c>
       <c r="O62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -5360,8 +5546,11 @@
       <c r="X62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -5434,8 +5623,11 @@
       <c r="X63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -5488,10 +5680,10 @@
         <v>0</v>
       </c>
       <c r="R64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T64">
         <v>0</v>
@@ -5500,16 +5692,19 @@
         <v>0</v>
       </c>
       <c r="V64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W64">
         <v>1</v>
       </c>
       <c r="X64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -5582,8 +5777,11 @@
       <c r="X65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -5636,10 +5834,10 @@
         <v>0</v>
       </c>
       <c r="R66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T66">
         <v>0</v>
@@ -5648,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="V66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W66">
         <v>1</v>
@@ -5656,8 +5854,11 @@
       <c r="X66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -5710,10 +5911,10 @@
         <v>0</v>
       </c>
       <c r="R67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T67">
         <v>0</v>
@@ -5722,7 +5923,7 @@
         <v>0</v>
       </c>
       <c r="V67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W67">
         <v>1</v>
@@ -5730,8 +5931,11 @@
       <c r="X67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -5766,19 +5970,19 @@
         <v>0</v>
       </c>
       <c r="L68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M68">
         <v>1</v>
       </c>
       <c r="N68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -5804,8 +6008,11 @@
       <c r="X68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -5849,10 +6056,10 @@
         <v>0</v>
       </c>
       <c r="O69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -5878,8 +6085,11 @@
       <c r="X69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -5923,10 +6133,10 @@
         <v>0</v>
       </c>
       <c r="O70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
         <v>0</v>
@@ -5952,8 +6162,11 @@
       <c r="X70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -6006,10 +6219,10 @@
         <v>0</v>
       </c>
       <c r="R71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T71">
         <v>0</v>
@@ -6018,7 +6231,7 @@
         <v>0</v>
       </c>
       <c r="V71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W71">
         <v>1</v>
@@ -6026,8 +6239,11 @@
       <c r="X71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -6071,10 +6287,10 @@
         <v>0</v>
       </c>
       <c r="O72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
         <v>0</v>
@@ -6083,13 +6299,13 @@
         <v>0</v>
       </c>
       <c r="S72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T72">
         <v>1</v>
       </c>
       <c r="U72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V72">
         <v>0</v>
@@ -6100,8 +6316,11 @@
       <c r="X72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -6154,28 +6373,31 @@
         <v>0</v>
       </c>
       <c r="R73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S73">
-        <v>0</v>
-      </c>
-      <c r="T73" s="1">
-        <v>0</v>
-      </c>
-      <c r="U73">
+        <v>1</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73" s="1">
         <v>0</v>
       </c>
       <c r="V73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -6219,10 +6441,10 @@
         <v>0</v>
       </c>
       <c r="O74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -6248,8 +6470,11 @@
       <c r="X74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -6257,7 +6482,7 @@
         <v>1</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -6275,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -6284,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -6293,13 +6518,13 @@
         <v>0</v>
       </c>
       <c r="O75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P75">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R75">
         <v>0</v>
@@ -6322,8 +6547,11 @@
       <c r="X75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -6370,10 +6598,10 @@
         <v>0</v>
       </c>
       <c r="P76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R76">
         <v>0</v>
@@ -6396,8 +6624,11 @@
       <c r="X76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -6441,10 +6672,10 @@
         <v>0</v>
       </c>
       <c r="O77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
         <v>0</v>
@@ -6470,8 +6701,11 @@
       <c r="X77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -6518,10 +6752,10 @@
         <v>0</v>
       </c>
       <c r="P78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R78">
         <v>0</v>
@@ -6544,8 +6778,11 @@
       <c r="X78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -6589,10 +6826,10 @@
         <v>0</v>
       </c>
       <c r="O79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79">
         <v>0</v>
@@ -6618,8 +6855,11 @@
       <c r="X79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -6669,10 +6909,10 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S80">
         <v>0</v>
@@ -6692,8 +6932,11 @@
       <c r="X80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -6740,10 +6983,10 @@
         <v>0</v>
       </c>
       <c r="P81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R81">
         <v>0</v>
@@ -6766,8 +7009,11 @@
       <c r="X81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -6811,10 +7057,10 @@
         <v>0</v>
       </c>
       <c r="O82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q82">
         <v>0</v>
@@ -6840,8 +7086,11 @@
       <c r="X82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -6885,10 +7134,10 @@
         <v>0</v>
       </c>
       <c r="O83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -6914,8 +7163,11 @@
       <c r="X83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -6968,10 +7220,10 @@
         <v>0</v>
       </c>
       <c r="R84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T84">
         <v>0</v>
@@ -6980,7 +7232,7 @@
         <v>0</v>
       </c>
       <c r="V84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W84">
         <v>1</v>
@@ -6988,8 +7240,11 @@
       <c r="X84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>110</v>
       </c>
@@ -7042,10 +7297,10 @@
         <v>0</v>
       </c>
       <c r="R85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T85">
         <v>0</v>
@@ -7054,16 +7309,19 @@
         <v>0</v>
       </c>
       <c r="V85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>111</v>
       </c>
@@ -7116,10 +7374,10 @@
         <v>0</v>
       </c>
       <c r="R86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T86">
         <v>0</v>
@@ -7128,16 +7386,19 @@
         <v>0</v>
       </c>
       <c r="V86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>112</v>
       </c>
@@ -7190,10 +7451,10 @@
         <v>0</v>
       </c>
       <c r="R87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T87">
         <v>0</v>
@@ -7202,16 +7463,19 @@
         <v>0</v>
       </c>
       <c r="V87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Y87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>113</v>
       </c>
@@ -7264,10 +7528,10 @@
         <v>0</v>
       </c>
       <c r="R88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T88">
         <v>0</v>
@@ -7276,16 +7540,19 @@
         <v>0</v>
       </c>
       <c r="V88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Y88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>85</v>
       </c>
@@ -7329,10 +7596,10 @@
         <v>0</v>
       </c>
       <c r="O89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -7358,8 +7625,11 @@
       <c r="X89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>86</v>
       </c>
@@ -7403,10 +7673,10 @@
         <v>0</v>
       </c>
       <c r="O90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -7432,8 +7702,11 @@
       <c r="X90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -7480,10 +7753,10 @@
         <v>0</v>
       </c>
       <c r="P91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R91">
         <v>0</v>
@@ -7506,8 +7779,11 @@
       <c r="X91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>88</v>
       </c>
@@ -7551,10 +7827,10 @@
         <v>0</v>
       </c>
       <c r="O92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q92">
         <v>0</v>
@@ -7580,8 +7856,11 @@
       <c r="X92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>89</v>
       </c>
@@ -7634,10 +7913,10 @@
         <v>0</v>
       </c>
       <c r="R93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T93">
         <v>0</v>
@@ -7646,7 +7925,7 @@
         <v>0</v>
       </c>
       <c r="V93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W93">
         <v>1</v>
@@ -7654,8 +7933,11 @@
       <c r="X93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>90</v>
       </c>
@@ -7708,10 +7990,10 @@
         <v>0</v>
       </c>
       <c r="R94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T94">
         <v>0</v>
@@ -7720,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="V94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W94">
         <v>1</v>
@@ -7728,8 +8010,11 @@
       <c r="X94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>91</v>
       </c>
@@ -7779,10 +8064,10 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S95">
         <v>0</v>
@@ -7802,8 +8087,11 @@
       <c r="X95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>92</v>
       </c>
@@ -7850,10 +8138,10 @@
         <v>0</v>
       </c>
       <c r="P96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R96">
         <v>0</v>
@@ -7876,8 +8164,11 @@
       <c r="X96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>93</v>
       </c>
@@ -7930,10 +8221,10 @@
         <v>0</v>
       </c>
       <c r="R97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T97">
         <v>0</v>
@@ -7942,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="V97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W97">
         <v>1</v>
@@ -7950,8 +8241,11 @@
       <c r="X97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>94</v>
       </c>
@@ -8004,10 +8298,10 @@
         <v>0</v>
       </c>
       <c r="R98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T98">
         <v>0</v>
@@ -8016,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="V98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W98">
         <v>1</v>
@@ -8024,8 +8318,11 @@
       <c r="X98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>95</v>
       </c>
@@ -8069,10 +8366,10 @@
         <v>0</v>
       </c>
       <c r="O99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q99">
         <v>0</v>
@@ -8098,8 +8395,11 @@
       <c r="X99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>96</v>
       </c>
@@ -8143,10 +8443,10 @@
         <v>0</v>
       </c>
       <c r="O100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q100">
         <v>0</v>
@@ -8172,9 +8472,12 @@
       <c r="X100">
         <v>0</v>
       </c>
+      <c r="Y100">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X100"/>
+  <autoFilter ref="A1:Y100"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/inst/extdata/decklist.xlsx
+++ b/inst/extdata/decklist.xlsx
@@ -1,54 +1,94 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$Y$100</definedName>
-  </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
-  <si>
-    <t>PRODUCE UB T2</t>
-  </si>
-  <si>
-    <t>CAST ENABLER T1</t>
-  </si>
-  <si>
-    <t>HAY ENABLER MV 0</t>
-  </si>
-  <si>
-    <t>HAY ENABLER MV 1 Y TENGO COLOR PARA JUGARLO</t>
-  </si>
-  <si>
-    <t>HAY ENABLER MV 2 Y TENGO RAMP PARA JUGARLO</t>
-  </si>
-  <si>
-    <t>HAY ENABLER MV 3 Y TENGO RAMP PARA JUGARLO</t>
-  </si>
-  <si>
-    <t>TENGO 2 TIERRAS QUE PRODUCEN UB</t>
-  </si>
-  <si>
-    <t>TENGO 2 TIERRAS QUE PRODUCEN UU O BB CON MOX DIAMOND</t>
-  </si>
-  <si>
-    <t>TENGO 2 TIERRAS QUE PRODUCEN UU O BB CON CHROME MOX QUE SE PUEDE ACTIVAR</t>
-  </si>
-  <si>
-    <t>TENGO 1 TIERRA Y CHROME MOX QUE PRODUCE COLOR CONTRARIO</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+  <si>
+    <t>card_name</t>
+  </si>
+  <si>
+    <t>in_deck</t>
+  </si>
+  <si>
+    <t>enabler</t>
+  </si>
+  <si>
+    <t>enabler_0</t>
+  </si>
+  <si>
+    <t>enabler_1</t>
+  </si>
+  <si>
+    <t>enabler_c</t>
+  </si>
+  <si>
+    <t>enabler_u</t>
+  </si>
+  <si>
+    <t>enabler_b</t>
+  </si>
+  <si>
+    <t>enabler_2</t>
+  </si>
+  <si>
+    <t>enabler_1u</t>
+  </si>
+  <si>
+    <t>enabler_1b</t>
+  </si>
+  <si>
+    <t>enabler_ub</t>
+  </si>
+  <si>
+    <t>enabler_3</t>
+  </si>
+  <si>
+    <t>enabler_2u</t>
+  </si>
+  <si>
+    <t>enabler_2b</t>
+  </si>
+  <si>
+    <t>color_u</t>
+  </si>
+  <si>
+    <t>color_b</t>
+  </si>
+  <si>
+    <t>color_c</t>
+  </si>
+  <si>
+    <t>is_land</t>
+  </si>
+  <si>
+    <t>is_mdfc_land</t>
+  </si>
+  <si>
+    <t>is_mdfc_land_u</t>
+  </si>
+  <si>
+    <t>is_mdfc_land_b</t>
+  </si>
+  <si>
+    <t>is_color_land</t>
+  </si>
+  <si>
+    <t>is_land_u</t>
+  </si>
+  <si>
+    <t>is_land_b</t>
   </si>
   <si>
     <t>Agadeem's Awakening</t>
@@ -60,6 +100,9 @@
     <t>Bloodstained Mire</t>
   </si>
   <si>
+    <t>Boggart Trawler</t>
+  </si>
+  <si>
     <t>Brainstorm</t>
   </si>
   <si>
@@ -69,6 +112,12 @@
     <t>Chrome Mox</t>
   </si>
   <si>
+    <t>City of Brass</t>
+  </si>
+  <si>
+    <t>Cloud of Faeries</t>
+  </si>
+  <si>
     <t>Clearwater Pathway</t>
   </si>
   <si>
@@ -81,6 +130,9 @@
     <t>Commandeer</t>
   </si>
   <si>
+    <t>ConsignOblivion</t>
+  </si>
+  <si>
     <t>Contagion</t>
   </si>
   <si>
@@ -117,9 +169,21 @@
     <t>Fallen Shinobi</t>
   </si>
   <si>
+    <t>Fell the Profane</t>
+  </si>
+  <si>
+    <t>FarAway</t>
+  </si>
+  <si>
     <t>Fierce Guardianship</t>
   </si>
   <si>
+    <t>Flare of Denial</t>
+  </si>
+  <si>
+    <t>Flare of Malice</t>
+  </si>
+  <si>
     <t>Flooded Strand</t>
   </si>
   <si>
@@ -138,6 +202,9 @@
     <t>Gingerbrute</t>
   </si>
   <si>
+    <t>Hydroelectric Specimen</t>
+  </si>
+  <si>
     <t>Grim Hireling</t>
   </si>
   <si>
@@ -147,12 +214,33 @@
     <t>Inkrise Infiltrator</t>
   </si>
   <si>
+    <t>Island1</t>
+  </si>
+  <si>
+    <t>Island2</t>
+  </si>
+  <si>
+    <t>Island3</t>
+  </si>
+  <si>
+    <t>Island4</t>
+  </si>
+  <si>
+    <t>Island5</t>
+  </si>
+  <si>
+    <t>Mutavault</t>
+  </si>
+  <si>
     <t>Liliana's Triumph</t>
   </si>
   <si>
     <t>Lotus Petal</t>
   </si>
   <si>
+    <t>Make an Example</t>
+  </si>
+  <si>
     <t>Mana Confluence</t>
   </si>
   <si>
@@ -201,6 +289,9 @@
     <t>Mystical Tutor</t>
   </si>
   <si>
+    <t>Nanogene Conversion</t>
+  </si>
+  <si>
     <t>Nashi, Moon Sage's Scion</t>
   </si>
   <si>
@@ -210,6 +301,9 @@
     <t>Ninja of the Deep Hours</t>
   </si>
   <si>
+    <t>Orcish Bowmasters</t>
+  </si>
+  <si>
     <t>Ornithopter</t>
   </si>
   <si>
@@ -228,36 +322,72 @@
     <t>Prosperous Thief</t>
   </si>
   <si>
+    <t>Roaming Throne</t>
+  </si>
+  <si>
     <t>Sage of Epityr</t>
   </si>
   <si>
+    <t>Sakashima of a Thousand Faces</t>
+  </si>
+  <si>
+    <t>Sakashima the Impostor</t>
+  </si>
+  <si>
     <t>Sakashima's Student</t>
   </si>
   <si>
+    <t>Satoru, the Infiltrator</t>
+  </si>
+  <si>
     <t>Scalding Tarn</t>
   </si>
   <si>
     <t>Sea Gate Restoration</t>
   </si>
   <si>
+    <t>Shadow of Mortality</t>
+  </si>
+  <si>
+    <t>Sheoldred's Edict</t>
+  </si>
+  <si>
     <t>Shizo, Death's Storehouse</t>
   </si>
   <si>
+    <t>Sickening Shoal</t>
+  </si>
+  <si>
     <t>Sidisi's Faithful</t>
   </si>
   <si>
     <t>Silver-Fur Master</t>
   </si>
   <si>
+    <t>Sink into Stupor</t>
+  </si>
+  <si>
     <t>Skullsnatcher</t>
   </si>
   <si>
     <t>Snapback</t>
   </si>
   <si>
+    <t>Snow-Covered Island</t>
+  </si>
+  <si>
+    <t>Snow-Covered Swamp</t>
+  </si>
+  <si>
     <t>Snuff Out</t>
   </si>
   <si>
+    <t>Soul Shatter</t>
+  </si>
+  <si>
+    <t>Spark Double</t>
+  </si>
+  <si>
     <t>Spectral Sailor</t>
   </si>
   <si>
@@ -276,6 +406,18 @@
     <t>Sunken Ruins</t>
   </si>
   <si>
+    <t>Swamp1</t>
+  </si>
+  <si>
+    <t>Swamp2</t>
+  </si>
+  <si>
+    <t>Swamp3</t>
+  </si>
+  <si>
+    <t>Swamp4</t>
+  </si>
+  <si>
     <t>Temporal Trespass</t>
   </si>
   <si>
@@ -306,129 +448,29 @@
     <t>Watery Grave</t>
   </si>
   <si>
+    <t>Windcaller Aven</t>
+  </si>
+  <si>
     <t>Wingcrafter</t>
   </si>
   <si>
     <t>Wonder</t>
-  </si>
-  <si>
-    <t>enabler_0</t>
-  </si>
-  <si>
-    <t>enabler_1</t>
-  </si>
-  <si>
-    <t>enabler_2</t>
-  </si>
-  <si>
-    <t>enabler_3</t>
-  </si>
-  <si>
-    <t>is_land</t>
-  </si>
-  <si>
-    <t>color_b</t>
-  </si>
-  <si>
-    <t>color_u</t>
-  </si>
-  <si>
-    <t>in_deck</t>
-  </si>
-  <si>
-    <t>Island1</t>
-  </si>
-  <si>
-    <t>Island5</t>
-  </si>
-  <si>
-    <t>Island4</t>
-  </si>
-  <si>
-    <t>Island2</t>
-  </si>
-  <si>
-    <t>Island3</t>
-  </si>
-  <si>
-    <t>Swamp1</t>
-  </si>
-  <si>
-    <t>Swamp2</t>
-  </si>
-  <si>
-    <t>Swamp3</t>
-  </si>
-  <si>
-    <t>Swamp4</t>
-  </si>
-  <si>
-    <t>color_c</t>
-  </si>
-  <si>
-    <t>enabler</t>
-  </si>
-  <si>
-    <t>enabler_u</t>
-  </si>
-  <si>
-    <t>enabler_c</t>
-  </si>
-  <si>
-    <t>enabler_b</t>
-  </si>
-  <si>
-    <t>enabler_1u</t>
-  </si>
-  <si>
-    <t>enabler_1b</t>
-  </si>
-  <si>
-    <t>enabler_2u</t>
-  </si>
-  <si>
-    <t>enabler_2b</t>
-  </si>
-  <si>
-    <t>Mutavault</t>
-  </si>
-  <si>
-    <t>is_mdfc_land</t>
-  </si>
-  <si>
-    <t>is_mdfc_land_u</t>
-  </si>
-  <si>
-    <t>is_mdfc_land_b</t>
-  </si>
-  <si>
-    <t>is_color_land</t>
-  </si>
-  <si>
-    <t>is_land_u</t>
-  </si>
-  <si>
-    <t>is_land_b</t>
-  </si>
-  <si>
-    <t>card_name</t>
-  </si>
-  <si>
-    <t>ConsignOblivion</t>
-  </si>
-  <si>
-    <t>FarAway</t>
-  </si>
-  <si>
-    <t>enabler_ub</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -458,13 +500,15 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -760,102 +804,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y100"/>
+  <dimension ref="A1:Y123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.140625" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L1" t="s">
-        <v>133</v>
-      </c>
-      <c r="M1" t="s">
-        <v>100</v>
-      </c>
-      <c r="N1" t="s">
-        <v>121</v>
-      </c>
-      <c r="O1" t="s">
-        <v>122</v>
-      </c>
-      <c r="P1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>102</v>
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="S1" t="s">
-        <v>101</v>
-      </c>
-      <c r="T1" t="s">
-        <v>124</v>
-      </c>
-      <c r="U1" t="s">
-        <v>125</v>
-      </c>
-      <c r="V1" t="s">
-        <v>126</v>
-      </c>
-      <c r="W1" t="s">
-        <v>127</v>
-      </c>
-      <c r="X1" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>129</v>
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -932,7 +972,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1009,7 +1049,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1085,14 +1125,14 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
+      <c r="A5" t="s">
+        <v>28</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1122,19 +1162,19 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1143,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1163,19 +1203,19 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1184,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1208,10 +1248,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1240,19 +1280,19 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1261,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1288,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1317,7 +1357,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1368,10 +1408,10 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -1383,18 +1423,18 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1439,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1448,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -1460,24 +1500,24 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1495,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1516,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1525,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -1537,21 +1577,21 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1593,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1602,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -1614,21 +1654,21 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1673,7 +1713,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1702,7 +1742,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1750,13 +1790,13 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -1768,18 +1808,18 @@
         <v>0</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1824,10 +1864,10 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -1856,7 +1896,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1901,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -1933,7 +1973,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2010,7 +2050,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2087,10 +2127,10 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2135,13 +2175,13 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -2153,18 +2193,18 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2241,7 +2281,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2286,10 +2326,10 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -2318,10 +2358,10 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2366,13 +2406,13 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -2384,18 +2424,18 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2472,25 +2512,25 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2549,7 +2589,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2594,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>1</v>
@@ -2626,10 +2666,10 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2671,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
         <v>1</v>
@@ -2703,25 +2743,25 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2780,7 +2820,7 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2825,16 +2865,16 @@
         <v>0</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27">
         <v>0</v>
       </c>
       <c r="S27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -2846,18 +2886,18 @@
         <v>0</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2914,13 +2954,13 @@
         <v>0</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28">
         <v>0</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28">
         <v>0</v>
@@ -2934,10 +2974,10 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2982,7 +3022,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -3011,19 +3051,19 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -3032,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -3056,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30">
         <v>0</v>
@@ -3088,7 +3128,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -3133,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -3142,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="S31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31">
         <v>0</v>
@@ -3165,22 +3205,22 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3213,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32">
         <v>0</v>
@@ -3242,7 +3282,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -3290,13 +3330,13 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33">
         <v>0</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33">
         <v>0</v>
@@ -3308,18 +3348,18 @@
         <v>0</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3364,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="P34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
         <v>1</v>
@@ -3396,13 +3436,13 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -3420,13 +3460,13 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3441,10 +3481,10 @@
         <v>0</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35">
         <v>0</v>
@@ -3473,19 +3513,19 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -3494,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3521,13 +3561,13 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36">
         <v>0</v>
       </c>
       <c r="S36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36">
         <v>0</v>
@@ -3539,10 +3579,10 @@
         <v>0</v>
       </c>
       <c r="W36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -3550,7 +3590,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -3616,10 +3656,10 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -3627,22 +3667,22 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3678,10 +3718,10 @@
         <v>0</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38">
         <v>0</v>
@@ -3693,10 +3733,10 @@
         <v>0</v>
       </c>
       <c r="W38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y38">
         <v>0</v>
@@ -3704,13 +3744,13 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -3740,16 +3780,16 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39">
         <v>0</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -3758,22 +3798,22 @@
         <v>0</v>
       </c>
       <c r="S39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V39">
         <v>0</v>
       </c>
       <c r="W39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -3781,10 +3821,10 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -3829,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40">
         <v>0</v>
       </c>
       <c r="S40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T40">
         <v>0</v>
@@ -3847,10 +3887,10 @@
         <v>0</v>
       </c>
       <c r="W40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -3858,7 +3898,7 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -3903,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41">
         <v>0</v>
       </c>
       <c r="S41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T41">
         <v>0</v>
@@ -3935,13 +3975,13 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -3959,13 +3999,13 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -4012,7 +4052,7 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -4066,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43">
         <v>0</v>
@@ -4078,10 +4118,10 @@
         <v>0</v>
       </c>
       <c r="W43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y43">
         <v>0</v>
@@ -4089,10 +4129,10 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -4161,15 +4201,15 @@
         <v>1</v>
       </c>
       <c r="Y44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -4220,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45">
         <v>0</v>
@@ -4232,10 +4272,10 @@
         <v>0</v>
       </c>
       <c r="W45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y45">
         <v>0</v>
@@ -4243,10 +4283,10 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -4288,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="P46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -4297,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46">
         <v>0</v>
@@ -4309,10 +4349,10 @@
         <v>0</v>
       </c>
       <c r="W46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y46">
         <v>0</v>
@@ -4320,10 +4360,10 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -4392,21 +4432,21 @@
         <v>1</v>
       </c>
       <c r="Y47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -4451,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48">
         <v>0</v>
@@ -4474,7 +4514,7 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -4519,10 +4559,10 @@
         <v>0</v>
       </c>
       <c r="P49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49">
         <v>0</v>
@@ -4551,7 +4591,7 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -4596,13 +4636,13 @@
         <v>0</v>
       </c>
       <c r="P50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
         <v>0</v>
       </c>
       <c r="R50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S50">
         <v>0</v>
@@ -4628,13 +4668,13 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -4664,19 +4704,19 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51">
         <v>0</v>
       </c>
       <c r="P51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51">
         <v>0</v>
@@ -4705,13 +4745,13 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -4741,16 +4781,16 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52">
         <v>0</v>
       </c>
       <c r="P52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -4759,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="S52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52">
         <v>0</v>
@@ -4771,18 +4811,18 @@
         <v>0</v>
       </c>
       <c r="W52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -4833,10 +4873,10 @@
         <v>0</v>
       </c>
       <c r="R53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T53">
         <v>0</v>
@@ -4848,24 +4888,24 @@
         <v>0</v>
       </c>
       <c r="W53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -4883,10 +4923,10 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -4936,7 +4976,7 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -5013,7 +5053,7 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -5022,16 +5062,16 @@
         <v>1</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5058,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="P56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -5090,10 +5130,10 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -5135,7 +5175,7 @@
         <v>0</v>
       </c>
       <c r="P57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
         <v>0</v>
@@ -5167,7 +5207,7 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -5212,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="P58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -5244,13 +5284,13 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -5280,10 +5320,10 @@
         <v>0</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59">
         <v>0</v>
@@ -5321,13 +5361,13 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -5357,19 +5397,19 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60">
         <v>0</v>
       </c>
       <c r="P60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R60">
         <v>0</v>
@@ -5398,13 +5438,13 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -5422,13 +5462,13 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -5446,13 +5486,13 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61">
         <v>0</v>
       </c>
       <c r="S61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T61">
         <v>0</v>
@@ -5464,24 +5504,24 @@
         <v>0</v>
       </c>
       <c r="W61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -5499,10 +5539,10 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -5552,16 +5592,16 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -5606,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="S63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T63">
         <v>0</v>
@@ -5618,36 +5658,36 @@
         <v>0</v>
       </c>
       <c r="W63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -5674,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="P64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -5683,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="S64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T64">
         <v>0</v>
@@ -5695,10 +5735,10 @@
         <v>0</v>
       </c>
       <c r="W64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y64">
         <v>0</v>
@@ -5706,16 +5746,16 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -5757,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="R65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S65">
         <v>0</v>
@@ -5783,7 +5823,7 @@
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -5834,10 +5874,10 @@
         <v>0</v>
       </c>
       <c r="R66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T66">
         <v>0</v>
@@ -5849,18 +5889,18 @@
         <v>0</v>
       </c>
       <c r="W66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -5905,7 +5945,7 @@
         <v>0</v>
       </c>
       <c r="P67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
         <v>0</v>
@@ -5914,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="S67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T67">
         <v>0</v>
@@ -5926,24 +5966,24 @@
         <v>0</v>
       </c>
       <c r="W67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -5973,10 +6013,10 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O68">
         <v>0</v>
@@ -6014,25 +6054,25 @@
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -6059,10 +6099,10 @@
         <v>0</v>
       </c>
       <c r="P69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R69">
         <v>0</v>
@@ -6091,13 +6131,13 @@
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -6115,13 +6155,13 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70">
         <v>0</v>
@@ -6136,10 +6176,10 @@
         <v>0</v>
       </c>
       <c r="P70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R70">
         <v>0</v>
@@ -6168,7 +6208,7 @@
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -6213,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="P71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
         <v>0</v>
@@ -6222,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="S71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T71">
         <v>0</v>
@@ -6234,24 +6274,24 @@
         <v>0</v>
       </c>
       <c r="W71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -6269,13 +6309,13 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72">
         <v>0</v>
@@ -6290,10 +6330,10 @@
         <v>0</v>
       </c>
       <c r="P72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R72">
         <v>0</v>
@@ -6302,10 +6342,10 @@
         <v>0</v>
       </c>
       <c r="T72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V72">
         <v>0</v>
@@ -6322,16 +6362,16 @@
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -6376,48 +6416,48 @@
         <v>0</v>
       </c>
       <c r="S73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T73">
         <v>0</v>
       </c>
-      <c r="U73" s="1">
+      <c r="U73">
         <v>0</v>
       </c>
       <c r="V73">
         <v>0</v>
       </c>
       <c r="W73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X73">
         <v>0</v>
       </c>
       <c r="Y73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -6444,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="P74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -6453,7 +6493,7 @@
         <v>0</v>
       </c>
       <c r="S74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T74">
         <v>0</v>
@@ -6465,10 +6505,10 @@
         <v>0</v>
       </c>
       <c r="W74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y74">
         <v>0</v>
@@ -6476,7 +6516,7 @@
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -6485,7 +6525,7 @@
         <v>1</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -6500,7 +6540,7 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -6509,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -6521,10 +6561,10 @@
         <v>0</v>
       </c>
       <c r="P75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75">
         <v>0</v>
@@ -6553,13 +6593,13 @@
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -6577,13 +6617,13 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -6601,13 +6641,13 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R76">
         <v>0</v>
       </c>
       <c r="S76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T76">
         <v>0</v>
@@ -6619,18 +6659,18 @@
         <v>0</v>
       </c>
       <c r="W76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -6675,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="P77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
         <v>0</v>
@@ -6684,7 +6724,7 @@
         <v>0</v>
       </c>
       <c r="S77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T77">
         <v>0</v>
@@ -6696,24 +6736,24 @@
         <v>0</v>
       </c>
       <c r="W77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -6743,19 +6783,19 @@
         <v>0</v>
       </c>
       <c r="M78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O78">
         <v>0</v>
       </c>
       <c r="P78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R78">
         <v>0</v>
@@ -6784,25 +6824,25 @@
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -6829,13 +6869,13 @@
         <v>0</v>
       </c>
       <c r="P79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
         <v>0</v>
       </c>
       <c r="R79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S79">
         <v>0</v>
@@ -6861,7 +6901,7 @@
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -6876,10 +6916,10 @@
         <v>1</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -6906,13 +6946,13 @@
         <v>0</v>
       </c>
       <c r="P80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
         <v>0</v>
       </c>
       <c r="R80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S80">
         <v>0</v>
@@ -6938,7 +6978,7 @@
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -6983,10 +7023,10 @@
         <v>0</v>
       </c>
       <c r="P81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R81">
         <v>0</v>
@@ -7015,7 +7055,7 @@
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -7092,7 +7132,7 @@
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -7169,13 +7209,13 @@
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -7193,7 +7233,7 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -7202,7 +7242,7 @@
         <v>0</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -7214,16 +7254,16 @@
         <v>0</v>
       </c>
       <c r="P84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R84">
         <v>0</v>
       </c>
       <c r="S84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T84">
         <v>0</v>
@@ -7235,18 +7275,18 @@
         <v>0</v>
       </c>
       <c r="W84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -7315,7 +7355,7 @@
         <v>1</v>
       </c>
       <c r="X85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y85">
         <v>1</v>
@@ -7323,7 +7363,7 @@
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -7368,7 +7408,7 @@
         <v>0</v>
       </c>
       <c r="P86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -7377,30 +7417,30 @@
         <v>0</v>
       </c>
       <c r="S86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V86">
         <v>0</v>
       </c>
       <c r="W86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X86">
         <v>0</v>
       </c>
       <c r="Y86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -7448,13 +7488,13 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R87">
         <v>0</v>
       </c>
       <c r="S87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T87">
         <v>0</v>
@@ -7466,18 +7506,18 @@
         <v>0</v>
       </c>
       <c r="W87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X87">
         <v>0</v>
       </c>
       <c r="Y87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -7525,13 +7565,13 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R88">
         <v>0</v>
       </c>
       <c r="S88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T88">
         <v>0</v>
@@ -7543,18 +7583,18 @@
         <v>0</v>
       </c>
       <c r="W88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X88">
         <v>0</v>
       </c>
       <c r="Y88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>85</v>
+      <c r="A89" t="s">
+        <v>112</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -7599,7 +7639,7 @@
         <v>0</v>
       </c>
       <c r="P89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -7608,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="S89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T89">
         <v>0</v>
@@ -7620,24 +7660,24 @@
         <v>0</v>
       </c>
       <c r="W89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X89">
         <v>0</v>
       </c>
       <c r="Y89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -7655,10 +7695,10 @@
         <v>0</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -7676,10 +7716,10 @@
         <v>0</v>
       </c>
       <c r="P90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R90">
         <v>0</v>
@@ -7708,10 +7748,10 @@
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7726,10 +7766,10 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -7753,10 +7793,10 @@
         <v>0</v>
       </c>
       <c r="P91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R91">
         <v>0</v>
@@ -7785,7 +7825,7 @@
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -7797,19 +7837,19 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -7818,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="L92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M92">
         <v>0</v>
@@ -7833,7 +7873,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R92">
         <v>0</v>
@@ -7861,8 +7901,8 @@
       </c>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>89</v>
+      <c r="A93" t="s">
+        <v>116</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -7907,7 +7947,7 @@
         <v>0</v>
       </c>
       <c r="P93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q93">
         <v>0</v>
@@ -7916,36 +7956,36 @@
         <v>0</v>
       </c>
       <c r="S93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V93">
         <v>0</v>
       </c>
       <c r="W93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -7963,13 +8003,13 @@
         <v>0</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94">
         <v>0</v>
       </c>
       <c r="K94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94">
         <v>0</v>
@@ -7987,13 +8027,13 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R94">
         <v>0</v>
       </c>
       <c r="S94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T94">
         <v>0</v>
@@ -8005,33 +8045,33 @@
         <v>0</v>
       </c>
       <c r="W94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -8061,13 +8101,13 @@
         <v>0</v>
       </c>
       <c r="P95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q95">
         <v>0</v>
       </c>
       <c r="R95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S95">
         <v>0</v>
@@ -8093,7 +8133,7 @@
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -8141,13 +8181,13 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R96">
         <v>0</v>
       </c>
       <c r="S96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T96">
         <v>0</v>
@@ -8159,10 +8199,10 @@
         <v>0</v>
       </c>
       <c r="W96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y96">
         <v>0</v>
@@ -8170,7 +8210,7 @@
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -8239,7 +8279,7 @@
         <v>1</v>
       </c>
       <c r="X97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y97">
         <v>1</v>
@@ -8247,7 +8287,7 @@
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -8295,13 +8335,13 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R98">
         <v>0</v>
       </c>
       <c r="S98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T98">
         <v>0</v>
@@ -8313,36 +8353,36 @@
         <v>0</v>
       </c>
       <c r="W98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="B99">
         <v>1</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -8369,10 +8409,10 @@
         <v>0</v>
       </c>
       <c r="P99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R99">
         <v>0</v>
@@ -8401,7 +8441,7 @@
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -8476,90 +8516,1776 @@
         <v>0</v>
       </c>
     </row>
-  </sheetData>
-  <autoFilter ref="A1:Y100"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A17"/>
-  <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B28" sqref="A1:B28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>124</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>1</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>0</v>
+      </c>
+      <c r="S101">
+        <v>0</v>
+      </c>
+      <c r="T101">
+        <v>0</v>
+      </c>
+      <c r="U101">
+        <v>0</v>
+      </c>
+      <c r="V101">
+        <v>0</v>
+      </c>
+      <c r="W101">
+        <v>0</v>
+      </c>
+      <c r="X101">
+        <v>0</v>
+      </c>
+      <c r="Y101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>125</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="R102">
+        <v>1</v>
+      </c>
+      <c r="S102">
+        <v>0</v>
+      </c>
+      <c r="T102">
+        <v>0</v>
+      </c>
+      <c r="U102">
+        <v>0</v>
+      </c>
+      <c r="V102">
+        <v>0</v>
+      </c>
+      <c r="W102">
+        <v>0</v>
+      </c>
+      <c r="X102">
+        <v>0</v>
+      </c>
+      <c r="Y102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>126</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>1</v>
+      </c>
+      <c r="R103">
+        <v>0</v>
+      </c>
+      <c r="S103">
+        <v>0</v>
+      </c>
+      <c r="T103">
+        <v>0</v>
+      </c>
+      <c r="U103">
+        <v>0</v>
+      </c>
+      <c r="V103">
+        <v>0</v>
+      </c>
+      <c r="W103">
+        <v>0</v>
+      </c>
+      <c r="X103">
+        <v>0</v>
+      </c>
+      <c r="Y103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>127</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <v>1</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <v>0</v>
+      </c>
+      <c r="S104">
+        <v>0</v>
+      </c>
+      <c r="T104">
+        <v>0</v>
+      </c>
+      <c r="U104">
+        <v>0</v>
+      </c>
+      <c r="V104">
+        <v>0</v>
+      </c>
+      <c r="W104">
+        <v>0</v>
+      </c>
+      <c r="X104">
+        <v>0</v>
+      </c>
+      <c r="Y104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>128</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>1</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <v>0</v>
+      </c>
+      <c r="S105">
+        <v>0</v>
+      </c>
+      <c r="T105">
+        <v>0</v>
+      </c>
+      <c r="U105">
+        <v>0</v>
+      </c>
+      <c r="V105">
+        <v>0</v>
+      </c>
+      <c r="W105">
+        <v>0</v>
+      </c>
+      <c r="X105">
+        <v>0</v>
+      </c>
+      <c r="Y105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>129</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="R106">
+        <v>0</v>
+      </c>
+      <c r="S106">
+        <v>1</v>
+      </c>
+      <c r="T106">
+        <v>0</v>
+      </c>
+      <c r="U106">
+        <v>0</v>
+      </c>
+      <c r="V106">
+        <v>0</v>
+      </c>
+      <c r="W106">
+        <v>1</v>
+      </c>
+      <c r="X106">
+        <v>1</v>
+      </c>
+      <c r="Y106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>130</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="R107">
+        <v>0</v>
+      </c>
+      <c r="S107">
+        <v>1</v>
+      </c>
+      <c r="T107">
+        <v>0</v>
+      </c>
+      <c r="U107">
+        <v>0</v>
+      </c>
+      <c r="V107">
+        <v>0</v>
+      </c>
+      <c r="W107">
+        <v>1</v>
+      </c>
+      <c r="X107">
+        <v>0</v>
+      </c>
+      <c r="Y107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>131</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+      <c r="R108">
+        <v>0</v>
+      </c>
+      <c r="S108">
+        <v>1</v>
+      </c>
+      <c r="T108">
+        <v>0</v>
+      </c>
+      <c r="U108">
+        <v>0</v>
+      </c>
+      <c r="V108">
+        <v>0</v>
+      </c>
+      <c r="W108">
+        <v>1</v>
+      </c>
+      <c r="X108">
+        <v>0</v>
+      </c>
+      <c r="Y108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>132</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <v>0</v>
+      </c>
+      <c r="S109">
+        <v>1</v>
+      </c>
+      <c r="T109">
+        <v>0</v>
+      </c>
+      <c r="U109">
+        <v>0</v>
+      </c>
+      <c r="V109">
+        <v>0</v>
+      </c>
+      <c r="W109">
+        <v>1</v>
+      </c>
+      <c r="X109">
+        <v>0</v>
+      </c>
+      <c r="Y109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>133</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="R110">
+        <v>0</v>
+      </c>
+      <c r="S110">
+        <v>1</v>
+      </c>
+      <c r="T110">
+        <v>0</v>
+      </c>
+      <c r="U110">
+        <v>0</v>
+      </c>
+      <c r="V110">
+        <v>0</v>
+      </c>
+      <c r="W110">
+        <v>1</v>
+      </c>
+      <c r="X110">
+        <v>0</v>
+      </c>
+      <c r="Y110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>134</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <v>1</v>
+      </c>
+      <c r="Q111">
+        <v>0</v>
+      </c>
+      <c r="R111">
+        <v>0</v>
+      </c>
+      <c r="S111">
+        <v>0</v>
+      </c>
+      <c r="T111">
+        <v>0</v>
+      </c>
+      <c r="U111">
+        <v>0</v>
+      </c>
+      <c r="V111">
+        <v>0</v>
+      </c>
+      <c r="W111">
+        <v>0</v>
+      </c>
+      <c r="X111">
+        <v>0</v>
+      </c>
+      <c r="Y111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>135</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <v>1</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>0</v>
+      </c>
+      <c r="S112">
+        <v>0</v>
+      </c>
+      <c r="T112">
+        <v>0</v>
+      </c>
+      <c r="U112">
+        <v>0</v>
+      </c>
+      <c r="V112">
+        <v>0</v>
+      </c>
+      <c r="W112">
+        <v>0</v>
+      </c>
+      <c r="X112">
+        <v>0</v>
+      </c>
+      <c r="Y112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>136</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>1</v>
+      </c>
+      <c r="R113">
+        <v>0</v>
+      </c>
+      <c r="S113">
+        <v>0</v>
+      </c>
+      <c r="T113">
+        <v>0</v>
+      </c>
+      <c r="U113">
+        <v>0</v>
+      </c>
+      <c r="V113">
+        <v>0</v>
+      </c>
+      <c r="W113">
+        <v>0</v>
+      </c>
+      <c r="X113">
+        <v>0</v>
+      </c>
+      <c r="Y113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>137</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <v>1</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="R114">
+        <v>0</v>
+      </c>
+      <c r="S114">
+        <v>0</v>
+      </c>
+      <c r="T114">
+        <v>0</v>
+      </c>
+      <c r="U114">
+        <v>0</v>
+      </c>
+      <c r="V114">
+        <v>0</v>
+      </c>
+      <c r="W114">
+        <v>0</v>
+      </c>
+      <c r="X114">
+        <v>0</v>
+      </c>
+      <c r="Y114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>138</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="R115">
+        <v>0</v>
+      </c>
+      <c r="S115">
+        <v>1</v>
+      </c>
+      <c r="T115">
+        <v>0</v>
+      </c>
+      <c r="U115">
+        <v>0</v>
+      </c>
+      <c r="V115">
+        <v>0</v>
+      </c>
+      <c r="W115">
+        <v>1</v>
+      </c>
+      <c r="X115">
+        <v>1</v>
+      </c>
+      <c r="Y115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>139</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
+      </c>
+      <c r="R116">
+        <v>0</v>
+      </c>
+      <c r="S116">
+        <v>1</v>
+      </c>
+      <c r="T116">
+        <v>0</v>
+      </c>
+      <c r="U116">
+        <v>0</v>
+      </c>
+      <c r="V116">
+        <v>0</v>
+      </c>
+      <c r="W116">
+        <v>1</v>
+      </c>
+      <c r="X116">
+        <v>1</v>
+      </c>
+      <c r="Y116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>140</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>0</v>
+      </c>
+      <c r="R117">
+        <v>1</v>
+      </c>
+      <c r="S117">
+        <v>0</v>
+      </c>
+      <c r="T117">
+        <v>0</v>
+      </c>
+      <c r="U117">
+        <v>0</v>
+      </c>
+      <c r="V117">
+        <v>0</v>
+      </c>
+      <c r="W117">
+        <v>0</v>
+      </c>
+      <c r="X117">
+        <v>0</v>
+      </c>
+      <c r="Y117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>141</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>1</v>
+      </c>
+      <c r="R118">
+        <v>0</v>
+      </c>
+      <c r="S118">
+        <v>0</v>
+      </c>
+      <c r="T118">
+        <v>0</v>
+      </c>
+      <c r="U118">
+        <v>0</v>
+      </c>
+      <c r="V118">
+        <v>0</v>
+      </c>
+      <c r="W118">
+        <v>0</v>
+      </c>
+      <c r="X118">
+        <v>0</v>
+      </c>
+      <c r="Y118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>142</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+      <c r="P119">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>0</v>
+      </c>
+      <c r="R119">
+        <v>0</v>
+      </c>
+      <c r="S119">
+        <v>1</v>
+      </c>
+      <c r="T119">
+        <v>0</v>
+      </c>
+      <c r="U119">
+        <v>0</v>
+      </c>
+      <c r="V119">
+        <v>0</v>
+      </c>
+      <c r="W119">
+        <v>1</v>
+      </c>
+      <c r="X119">
+        <v>1</v>
+      </c>
+      <c r="Y119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>143</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+      <c r="R120">
+        <v>0</v>
+      </c>
+      <c r="S120">
+        <v>1</v>
+      </c>
+      <c r="T120">
+        <v>0</v>
+      </c>
+      <c r="U120">
+        <v>0</v>
+      </c>
+      <c r="V120">
+        <v>0</v>
+      </c>
+      <c r="W120">
+        <v>1</v>
+      </c>
+      <c r="X120">
+        <v>1</v>
+      </c>
+      <c r="Y120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>144</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121">
+        <v>1</v>
+      </c>
+      <c r="Q121">
+        <v>0</v>
+      </c>
+      <c r="R121">
+        <v>0</v>
+      </c>
+      <c r="S121">
+        <v>0</v>
+      </c>
+      <c r="T121">
+        <v>0</v>
+      </c>
+      <c r="U121">
+        <v>0</v>
+      </c>
+      <c r="V121">
+        <v>0</v>
+      </c>
+      <c r="W121">
+        <v>0</v>
+      </c>
+      <c r="X121">
+        <v>0</v>
+      </c>
+      <c r="Y121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>145</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <v>1</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122">
+        <v>0</v>
+      </c>
+      <c r="S122">
+        <v>0</v>
+      </c>
+      <c r="T122">
+        <v>0</v>
+      </c>
+      <c r="U122">
+        <v>0</v>
+      </c>
+      <c r="V122">
+        <v>0</v>
+      </c>
+      <c r="W122">
+        <v>0</v>
+      </c>
+      <c r="X122">
+        <v>0</v>
+      </c>
+      <c r="Y122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>146</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <v>1</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+      <c r="R123">
+        <v>0</v>
+      </c>
+      <c r="S123">
+        <v>0</v>
+      </c>
+      <c r="T123">
+        <v>0</v>
+      </c>
+      <c r="U123">
+        <v>0</v>
+      </c>
+      <c r="V123">
+        <v>0</v>
+      </c>
+      <c r="W123">
+        <v>0</v>
+      </c>
+      <c r="X123">
+        <v>0</v>
+      </c>
+      <c r="Y123">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
